--- a/common-model-api.xlsx
+++ b/common-model-api.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="224">
   <si>
     <t xml:space="preserve">
 该表单中属性主要作为生成html代码的配置参数，例如代码：
@@ -311,6 +311,18 @@
   </si>
   <si>
     <t>占用多少列（一列包含了一个label和一个input控件），但是不一定填满，而inputSize则是实际大小</t>
+  </si>
+  <si>
+    <t>fieldset</t>
+  </si>
+  <si>
+    <t>是否在该列前插入fieldset</t>
+  </si>
+  <si>
+    <t>legend</t>
+  </si>
+  <si>
+    <t>如果设置了fieldset，则可以设置legend写入标题</t>
   </si>
   <si>
     <t>placeholder</t>
@@ -542,13 +554,16 @@
 </t>
   </si>
   <si>
+    <t>省市区联动控件专属属性</t>
+  </si>
+  <si>
     <t>rowValueField</t>
   </si>
   <si>
     <t>选择值标识ID的域，例如通常为行中的ID</t>
   </si>
   <si>
-    <t>弹出表格选择控件</t>
+    <t>弹出表格选择控件专属属性</t>
   </si>
   <si>
     <t>rowNameField</t>
@@ -751,12 +766,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -773,39 +788,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -901,9 +886,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -916,14 +923,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -956,12 +964,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.1"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -974,30 +976,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1016,12 +1138,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1034,24 +1150,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1059,102 +1157,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,30 +1167,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1203,6 +1181,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1257,6 +1244,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1270,152 +1272,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1428,9 +1430,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1441,9 +1440,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1466,18 +1462,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1845,24 +1829,24 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="35.625" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="61.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="64.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:6">
-      <c r="A1" s="19"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1875,256 +1859,253 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="22"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="22"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" customFormat="1" customHeight="1" spans="1:6">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="b">
+      <c r="C5" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="22"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" ht="38" customHeight="1" spans="1:6">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="22"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6"/>
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6"/>
       <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="6"/>
       <c r="E10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" customHeight="1" spans="1:6">
       <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" customHeight="1" spans="6:6">
-      <c r="F13" s="22"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" customHeight="1" spans="1:6">
       <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="22"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:6">
       <c r="A15" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="22"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" customHeight="1" spans="1:6">
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="22"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" customHeight="1" spans="1:6">
       <c r="A17" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="22"/>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" ht="36" customHeight="1" spans="1:6">
       <c r="A18" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="6" t="b">
+      <c r="C18" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="22"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" customHeight="1" spans="1:6">
       <c r="A19" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="22"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" customHeight="1" spans="1:6">
       <c r="A20" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="22"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" customHeight="1" spans="1:5">
       <c r="A21" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -2135,10 +2116,10 @@
       <c r="A22" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="17" t="s">
         <v>54</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -2149,7 +2130,7 @@
       <c r="A23" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -2160,10 +2141,10 @@
       <c r="A24" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -2174,7 +2155,7 @@
       <c r="A25" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -2185,10 +2166,10 @@
       <c r="A26" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="17" t="s">
         <v>54</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -2199,10 +2180,10 @@
       <c r="A27" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="6" t="b">
+      <c r="C27" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -2213,10 +2194,10 @@
       <c r="A28" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="6" t="b">
+      <c r="C28" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -2227,7 +2208,7 @@
       <c r="A29" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -2238,7 +2219,7 @@
       <c r="A30" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -2249,7 +2230,7 @@
       <c r="A31" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -2260,7 +2241,7 @@
       <c r="A32" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -2281,18 +2262,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="40" style="6" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="40" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="58.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="36.5" customWidth="1"/>
   </cols>
@@ -2310,18 +2291,18 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -2329,10 +2310,10 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -2340,13 +2321,13 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="b">
+      <c r="C4" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -2354,10 +2335,10 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -2365,13 +2346,13 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>83</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -2379,13 +2360,13 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>83</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -2393,10 +2374,10 @@
       </c>
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:5">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -2404,79 +2385,82 @@
       </c>
     </row>
     <row r="9" ht="49" customHeight="1" spans="1:5">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:5">
-      <c r="A10" s="6" t="s">
+    <row r="10" ht="49" customHeight="1" spans="1:5">
+      <c r="A10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>7</v>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" ht="33" customHeight="1" spans="1:5">
-      <c r="A11" s="6" t="s">
+    <row r="11" ht="49" customHeight="1" spans="1:5">
+      <c r="A11" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="2" t="s">
+    </row>
+    <row r="12" customHeight="1" spans="1:5">
+      <c r="A12" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:5">
-      <c r="A12" s="6" t="s">
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="2" t="s">
+    </row>
+    <row r="13" ht="33" customHeight="1" spans="1:5">
+      <c r="A13" s="5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:5">
-      <c r="A13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:5">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>13</v>
+      <c r="B14" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" ht="43" customHeight="1" spans="1:5">
-      <c r="A15" s="6" t="s">
+    <row r="15" customHeight="1" spans="1:5">
+      <c r="A15" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -2484,472 +2468,497 @@
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:5">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>6</v>
+      <c r="B16" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:5">
-      <c r="A17" s="6" t="s">
+    <row r="17" ht="43" customHeight="1" spans="1:5">
+      <c r="A17" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="6" t="s">
+    </row>
+    <row r="18" customHeight="1" spans="1:5">
+      <c r="A18" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:5">
+      <c r="A19" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:5">
-      <c r="A18" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="E19" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:5">
+      <c r="A20" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="C20" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:5">
+      <c r="A21" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:5">
-      <c r="A19" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:5">
-      <c r="A20" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:5">
-      <c r="A21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:6">
-      <c r="A22" s="11" t="s">
+    <row r="22" customHeight="1" spans="1:5">
+      <c r="A22" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:5">
+      <c r="A23" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:6">
+      <c r="A24" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="11" t="b">
+      <c r="C24" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:6">
-      <c r="A23" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B23" s="11" t="s">
+      <c r="D24" s="9"/>
+      <c r="E24" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:6">
+      <c r="A25" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" ht="43" customHeight="1" spans="1:6">
-      <c r="A24" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="B24" s="13" t="s">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" ht="43" customHeight="1" spans="1:6">
+      <c r="A26" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" customHeight="1" spans="1:6">
-      <c r="A25" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B25" s="13" t="s">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:6">
+      <c r="A27" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" customHeight="1" spans="1:6">
-      <c r="A26" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" ht="39" customHeight="1" spans="1:6">
-      <c r="A27" s="13" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:6">
+      <c r="A28" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" ht="39" customHeight="1" spans="1:6">
+      <c r="A29" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" ht="63" customHeight="1" spans="1:6">
-      <c r="A28" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B28" s="15" t="s">
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" ht="63" customHeight="1" spans="1:6">
+      <c r="A30" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" ht="35" customHeight="1" spans="1:6">
-      <c r="A29" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="B29" s="15" t="s">
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" ht="35" customHeight="1" spans="1:6">
+      <c r="A31" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" ht="51" customHeight="1" spans="1:6">
-      <c r="A30" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" customHeight="1" spans="1:6">
-      <c r="A31" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="B31" s="15" t="s">
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" ht="51" customHeight="1" spans="1:6">
+      <c r="A32" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" customHeight="1" spans="1:6">
+      <c r="A33" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="15" t="b">
+      <c r="C33" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" customHeight="1" spans="1:6">
-      <c r="A32" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="B32" s="15" t="s">
+      <c r="D33" s="11"/>
+      <c r="E33" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:6">
+      <c r="A34" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C34" s="11">
         <v>1</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" customHeight="1" spans="1:6">
-      <c r="A33" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B33" s="15" t="s">
+      <c r="D34" s="11"/>
+      <c r="E34" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:6">
+      <c r="A35" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C35" s="11">
         <v>8</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" customHeight="1" spans="1:6">
-      <c r="A34" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B34" s="15" t="s">
+      <c r="D35" s="11"/>
+      <c r="E35" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:6">
+      <c r="A36" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C36" s="11">
         <v>3</v>
       </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" customHeight="1" spans="1:6">
-      <c r="A35" s="15" t="s">
+      <c r="D36" s="11"/>
+      <c r="E36" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:6">
+      <c r="A37" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B37" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" customHeight="1" spans="1:6">
-      <c r="A36" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" customHeight="1" spans="1:6">
-      <c r="A37" s="15" t="s">
+      <c r="C37" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="D37" s="11"/>
+      <c r="E37" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:6">
+      <c r="A38" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" customHeight="1" spans="1:6">
+      <c r="A39" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" customHeight="1" spans="1:6">
-      <c r="A38" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" customHeight="1" spans="1:6">
-      <c r="A39" s="15" t="s">
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:6">
+      <c r="A40" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="16" t="s">
+      <c r="B40" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" ht="264" customHeight="1" spans="1:5">
-      <c r="A40" s="6" t="s">
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" customHeight="1" spans="1:6">
+      <c r="A41" s="11" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:6">
-      <c r="A41" s="17" t="s">
+      <c r="B41" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" ht="264" customHeight="1" spans="1:6">
+      <c r="A42" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F42" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:6">
+      <c r="A43" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B43" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C43" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:6">
-      <c r="A42" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="B42" s="17" t="s">
+      <c r="D43" s="13"/>
+      <c r="E43" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:6">
+      <c r="A44" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B44" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C44" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="F42" s="10"/>
-    </row>
-    <row r="43" customHeight="1" spans="1:6">
-      <c r="A43" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="10"/>
-    </row>
-    <row r="44" customHeight="1" spans="1:6">
-      <c r="A44" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="F44" s="10"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="F44" s="8"/>
     </row>
     <row r="45" customHeight="1" spans="1:6">
-      <c r="A45" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="B45" s="17" t="s">
+      <c r="A45" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" customHeight="1" spans="1:6">
+      <c r="A46" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" customHeight="1" spans="1:6">
+      <c r="A47" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B47" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="F45" s="10"/>
-    </row>
-    <row r="46" customHeight="1" spans="1:6">
-      <c r="A46" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="B46" s="17" t="s">
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" customHeight="1" spans="1:6">
+      <c r="A48" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B48" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C48" s="13">
         <v>600</v>
       </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="F46" s="10"/>
-    </row>
-    <row r="47" customHeight="1" spans="1:6">
-      <c r="A47" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="B47" s="17" t="s">
+      <c r="D48" s="13"/>
+      <c r="E48" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" customHeight="1" spans="1:6">
+      <c r="A49" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B49" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C49" s="13">
         <v>400</v>
       </c>
-      <c r="D47" s="17"/>
-      <c r="E47" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="F47" s="10"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="F49" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="F28:F39"/>
-    <mergeCell ref="F41:F47"/>
+    <mergeCell ref="F24:F29"/>
+    <mergeCell ref="F30:F41"/>
+    <mergeCell ref="F43:F49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2968,11 +2977,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="27.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9" style="6"/>
-    <col min="5" max="5" width="66" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9" style="5"/>
+    <col min="5" max="5" width="66" style="5" customWidth="1"/>
     <col min="6" max="6" width="84.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2989,117 +2998,117 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>175</v>
+      <c r="F1" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="2" ht="75" customHeight="1" spans="1:6">
-      <c r="A2" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2" s="10"/>
+      <c r="C2" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" ht="41" customHeight="1" spans="1:6">
-      <c r="A3" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F3" s="10"/>
+      <c r="A3" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" ht="78" customHeight="1" spans="1:6">
-      <c r="A4" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="F4" s="10"/>
+      <c r="C4" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" ht="29" customHeight="1" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" ht="37" customHeight="1" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="E8" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" ht="35" customHeight="1" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" ht="29" customHeight="1" spans="1:6">
-      <c r="A7" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" ht="37" customHeight="1" spans="1:6">
-      <c r="A8" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" ht="35" customHeight="1" spans="1:6">
-      <c r="A9" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="F9" s="10"/>
+      <c r="E9" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3129,10 +3138,10 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
@@ -3140,106 +3149,106 @@
     </row>
     <row r="2" ht="72" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" ht="45" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D3" s="4"/>
+        <v>209</v>
+      </c>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>211</v>
+      </c>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>213</v>
+      </c>
+      <c r="D5" s="3"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C7" t="s">
-        <v>211</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>212</v>
+        <v>216</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D8" s="5"/>
+        <v>219</v>
+      </c>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C9" t="s">
-        <v>216</v>
-      </c>
-      <c r="D9" s="5"/>
+        <v>221</v>
+      </c>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C10" t="s">
-        <v>218</v>
-      </c>
-      <c r="D10" s="5"/>
+        <v>223</v>
+      </c>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" customHeight="1" spans="4:4">
-      <c r="D11" s="5"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" customHeight="1" spans="4:4">
-      <c r="D12" s="5"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" customHeight="1" spans="4:4">
-      <c r="D13" s="5"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" customHeight="1" spans="4:4">
-      <c r="D14" s="5"/>
+      <c r="D14" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
